--- a/public/title.xlsx
+++ b/public/title.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\exam_system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\exam_system\EMOFF_Test\qte-exam-vue-master\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4C02B1-CC49-4242-8CAC-93B1D1B7B400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED761DA-C8D9-4B55-877C-9187BFE4182F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7281" yWindow="2108" windowWidth="17487" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="922" yWindow="4124" windowWidth="17487" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,30 +20,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>题目名称</t>
   </si>
   <si>
-    <t>题目答案</t>
-  </si>
-  <si>
-    <t>题目分数</t>
+    <t>选项B</t>
+  </si>
+  <si>
+    <t>选项C</t>
+  </si>
+  <si>
+    <t>选项D</t>
+  </si>
+  <si>
+    <t>难度系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>答案</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>题型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>选项A</t>
-  </si>
-  <si>
-    <t>选项B</t>
-  </si>
-  <si>
-    <t>选项C</t>
-  </si>
-  <si>
-    <t>选项D</t>
-  </si>
-  <si>
-    <t>难度系数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP协议通常使用什么协议进行传输（）</t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t>ARP</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>HTTP协议通常使用()协议进行传输</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP协议通常使用TCP协议进行传输?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -51,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -63,6 +97,7 @@
       <b/>
       <sz val="14"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -71,13 +106,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -122,14 +150,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -446,38 +471,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="A5" sqref="A5:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.85" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="34.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="34.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
